--- a/biology/Botanique/James_Mitchell_(rose)/James_Mitchell_(rose).xlsx
+++ b/biology/Botanique/James_Mitchell_(rose)/James_Mitchell_(rose).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'James Mitchell' est un cultivar de rosier mousseux obtenu en 1861 par le fameux horticulteur et rosiériste parisien Eugène Verdier[1]. Cette variété est toujours cultivée. Elle est dédiée à un pépiniériste anglais du Sussex[2].
+'James Mitchell' est un cultivar de rosier mousseux obtenu en 1861 par le fameux horticulteur et rosiériste parisien Eugène Verdier. Cette variété est toujours cultivée. Elle est dédiée à un pépiniériste anglais du Sussex.
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette rose très parfumée exhibe une délicate couleur rose aux nuances lilas au fur et à mesure. Les fleurs en pompons[3]sont doubles (17-25 pétales), de taille moyenne (9 cm) en forme de coupe. La floraison n'est pas remontante[4].
-Le buisson peu touffu[5], au feuillage vert bronze, s'élève à 150 cm pour une largeur de 120 cm. Ses rameaux sont gainés d'une légère mousse brune[6].
-Sa zone de rusticité est de 6b à 9b ; il supporte donc les hivers rigoureux. Cette variété est très résistante aux maladies du rosier et apprécie une situation ensoleillée et la culture en climat méditerranéen[7] et en pot.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette rose très parfumée exhibe une délicate couleur rose aux nuances lilas au fur et à mesure. Les fleurs en pomponssont doubles (17-25 pétales), de taille moyenne (9 cm) en forme de coupe. La floraison n'est pas remontante.
+Le buisson peu touffu, au feuillage vert bronze, s'élève à 150 cm pour une largeur de 120 cm. Ses rameaux sont gainés d'une légère mousse brune.
+Sa zone de rusticité est de 6b à 9b ; il supporte donc les hivers rigoureux. Cette variété est très résistante aux maladies du rosier et apprécie une situation ensoleillée et la culture en climat méditerranéen et en pot.
 </t>
         </is>
       </c>
